--- a/out/out.xlsx
+++ b/out/out.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N224"/>
+  <dimension ref="A1:Q224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,21 @@
           <t>poracum</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>msald</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>costsald</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>porsald</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -545,6 +560,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -591,6 +613,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -637,6 +666,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -683,6 +719,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -733,6 +776,15 @@
       <c r="N6" t="n">
         <v>1</v>
       </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -783,6 +835,15 @@
       <c r="N7" t="n">
         <v>0.83</v>
       </c>
+      <c r="O7" t="n">
+        <v>309.8</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2190.29</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -833,6 +894,15 @@
       <c r="N8" t="n">
         <v>0.65</v>
       </c>
+      <c r="O8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5670</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -883,6 +953,15 @@
       <c r="N9" t="n">
         <v>0.33</v>
       </c>
+      <c r="O9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1623.86</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -929,6 +1008,13 @@
         <v>0</v>
       </c>
       <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -975,6 +1061,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1025,6 +1118,15 @@
       <c r="N12" t="n">
         <v>0.65</v>
       </c>
+      <c r="O12" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P12" t="n">
+        <v>110.25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1075,6 +1177,15 @@
       <c r="N13" t="n">
         <v>0.65</v>
       </c>
+      <c r="O13" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P13" t="n">
+        <v>787.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1121,6 +1232,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1171,6 +1289,15 @@
       <c r="N15" t="n">
         <v>0.65</v>
       </c>
+      <c r="O15" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P15" t="n">
+        <v>110.25</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1217,6 +1344,13 @@
         <v>0</v>
       </c>
       <c r="N16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1267,6 +1401,15 @@
       <c r="N17" t="n">
         <v>0.65</v>
       </c>
+      <c r="O17" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P17" t="n">
+        <v>230.46</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1317,6 +1460,15 @@
       <c r="N18" t="n">
         <v>0.65</v>
       </c>
+      <c r="O18" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P18" t="n">
+        <v>378</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1363,6 +1515,13 @@
         <v>0</v>
       </c>
       <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1409,6 +1568,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1459,6 +1625,15 @@
       <c r="N21" t="n">
         <v>0.5</v>
       </c>
+      <c r="O21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P21" t="n">
+        <v>10206.57</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1505,6 +1680,13 @@
         <v>0</v>
       </c>
       <c r="N22" t="inlineStr"/>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1555,6 +1737,15 @@
       <c r="N23" t="n">
         <v>1</v>
       </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1601,6 +1792,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="inlineStr"/>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1651,6 +1849,15 @@
       <c r="N25" t="n">
         <v>0.65</v>
       </c>
+      <c r="O25" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P25" t="n">
+        <v>50838.6</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1701,6 +1908,15 @@
       <c r="N26" t="n">
         <v>0.65</v>
       </c>
+      <c r="O26" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P26" t="n">
+        <v>7213</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1751,6 +1967,15 @@
       <c r="N27" t="n">
         <v>0.65</v>
       </c>
+      <c r="O27" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P27" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1801,6 +2026,15 @@
       <c r="N28" t="n">
         <v>0.65</v>
       </c>
+      <c r="O28" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1260</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1851,6 +2085,15 @@
       <c r="N29" t="n">
         <v>0.65</v>
       </c>
+      <c r="O29" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1102.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1897,6 +2140,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="inlineStr"/>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1943,6 +2193,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="inlineStr"/>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1989,6 +2246,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="inlineStr"/>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2039,6 +2303,15 @@
       <c r="N33" t="n">
         <v>0.9399999999999999</v>
       </c>
+      <c r="O33" t="n">
+        <v>978.7600000000002</v>
+      </c>
+      <c r="P33" t="n">
+        <v>6577.27</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2089,6 +2362,15 @@
       <c r="N34" t="n">
         <v>0.89</v>
       </c>
+      <c r="O34" t="n">
+        <v>392.0099999999998</v>
+      </c>
+      <c r="P34" t="n">
+        <v>6793.54</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2139,6 +2421,15 @@
       <c r="N35" t="n">
         <v>0.98</v>
       </c>
+      <c r="O35" t="n">
+        <v>81.37999999999965</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1693.52</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2189,6 +2480,15 @@
       <c r="N36" t="n">
         <v>0.89</v>
       </c>
+      <c r="O36" t="n">
+        <v>21.03999999999999</v>
+      </c>
+      <c r="P36" t="n">
+        <v>437.84</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2239,6 +2539,15 @@
       <c r="N37" t="n">
         <v>0.86</v>
       </c>
+      <c r="O37" t="n">
+        <v>301.5500000000002</v>
+      </c>
+      <c r="P37" t="n">
+        <v>7593.03</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2285,6 +2594,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="inlineStr"/>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2335,6 +2651,15 @@
       <c r="N39" t="n">
         <v>0.84</v>
       </c>
+      <c r="O39" t="n">
+        <v>3292.400000000001</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5070.3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2381,6 +2706,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="inlineStr"/>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2431,6 +2763,15 @@
       <c r="N41" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="O41" t="n">
+        <v>4322.809999999999</v>
+      </c>
+      <c r="P41" t="n">
+        <v>25547.8</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2481,6 +2822,15 @@
       <c r="N42" t="n">
         <v>0</v>
       </c>
+      <c r="O42" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="P42" t="n">
+        <v>253.3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2531,6 +2881,15 @@
       <c r="N43" t="n">
         <v>0.73</v>
       </c>
+      <c r="O43" t="n">
+        <v>5734.389999999999</v>
+      </c>
+      <c r="P43" t="n">
+        <v>11984.88</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2581,6 +2940,15 @@
       <c r="N44" t="n">
         <v>0.77</v>
       </c>
+      <c r="O44" t="n">
+        <v>3483.870000000001</v>
+      </c>
+      <c r="P44" t="n">
+        <v>87723.85000000001</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2627,6 +2995,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="inlineStr"/>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2677,6 +3052,15 @@
       <c r="N46" t="n">
         <v>0.68</v>
       </c>
+      <c r="O46" t="n">
+        <v>6724.389999999999</v>
+      </c>
+      <c r="P46" t="n">
+        <v>82911.73</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2723,6 +3107,13 @@
         <v>0</v>
       </c>
       <c r="N47" t="inlineStr"/>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2773,6 +3164,15 @@
       <c r="N48" t="n">
         <v>0.63</v>
       </c>
+      <c r="O48" t="n">
+        <v>3077.6</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5816.66</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2823,6 +3223,15 @@
       <c r="N49" t="n">
         <v>0.54</v>
       </c>
+      <c r="O49" t="n">
+        <v>3295.66</v>
+      </c>
+      <c r="P49" t="n">
+        <v>180766.95</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2873,6 +3282,15 @@
       <c r="N50" t="n">
         <v>0.61</v>
       </c>
+      <c r="O50" t="n">
+        <v>2567.139999999999</v>
+      </c>
+      <c r="P50" t="n">
+        <v>9806.469999999999</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2923,6 +3341,15 @@
       <c r="N51" t="n">
         <v>0.62</v>
       </c>
+      <c r="O51" t="n">
+        <v>7972.219999999999</v>
+      </c>
+      <c r="P51" t="n">
+        <v>734400.91</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2973,6 +3400,15 @@
       <c r="N52" t="n">
         <v>0.62</v>
       </c>
+      <c r="O52" t="n">
+        <v>7972.219999999999</v>
+      </c>
+      <c r="P52" t="n">
+        <v>14908.05</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3023,6 +3459,15 @@
       <c r="N53" t="n">
         <v>0.59</v>
       </c>
+      <c r="O53" t="n">
+        <v>4886.79</v>
+      </c>
+      <c r="P53" t="n">
+        <v>13096.59</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3073,6 +3518,15 @@
       <c r="N54" t="n">
         <v>0</v>
       </c>
+      <c r="O54" t="n">
+        <v>11956.99</v>
+      </c>
+      <c r="P54" t="n">
+        <v>83459.78999999999</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3123,6 +3577,15 @@
       <c r="N55" t="n">
         <v>0.62</v>
       </c>
+      <c r="O55" t="n">
+        <v>7972.219999999999</v>
+      </c>
+      <c r="P55" t="n">
+        <v>14987.77</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3169,6 +3632,13 @@
         <v>0</v>
       </c>
       <c r="N56" t="inlineStr"/>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3219,6 +3689,15 @@
       <c r="N57" t="n">
         <v>0</v>
       </c>
+      <c r="O57" t="n">
+        <v>35196.47</v>
+      </c>
+      <c r="P57" t="n">
+        <v>29213.07</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3269,6 +3748,15 @@
       <c r="N58" t="n">
         <v>0</v>
       </c>
+      <c r="O58" t="n">
+        <v>43</v>
+      </c>
+      <c r="P58" t="n">
+        <v>38704.3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3315,6 +3803,13 @@
         <v>0</v>
       </c>
       <c r="N59" t="inlineStr"/>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3361,6 +3856,13 @@
         <v>0</v>
       </c>
       <c r="N60" t="inlineStr"/>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3411,6 +3913,15 @@
       <c r="N61" t="n">
         <v>0</v>
       </c>
+      <c r="O61" t="n">
+        <v>4436.16</v>
+      </c>
+      <c r="P61" t="n">
+        <v>50572.22</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3461,6 +3972,15 @@
       <c r="N62" t="n">
         <v>0</v>
       </c>
+      <c r="O62" t="n">
+        <v>1111.75</v>
+      </c>
+      <c r="P62" t="n">
+        <v>37076.86</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3511,6 +4031,15 @@
       <c r="N63" t="n">
         <v>0</v>
       </c>
+      <c r="O63" t="n">
+        <v>9</v>
+      </c>
+      <c r="P63" t="n">
+        <v>8780.67</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3561,6 +4090,15 @@
       <c r="N64" t="n">
         <v>0</v>
       </c>
+      <c r="O64" t="n">
+        <v>1107</v>
+      </c>
+      <c r="P64" t="n">
+        <v>11546.01</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3607,6 +4145,13 @@
         <v>0</v>
       </c>
       <c r="N65" t="inlineStr"/>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3653,6 +4198,13 @@
         <v>0</v>
       </c>
       <c r="N66" t="inlineStr"/>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3703,6 +4255,15 @@
       <c r="N67" t="n">
         <v>0</v>
       </c>
+      <c r="O67" t="n">
+        <v>39</v>
+      </c>
+      <c r="P67" t="n">
+        <v>16603.08</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3749,6 +4310,13 @@
         <v>0</v>
       </c>
       <c r="N68" t="inlineStr"/>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3799,6 +4367,15 @@
       <c r="N69" t="n">
         <v>0</v>
       </c>
+      <c r="O69" t="n">
+        <v>14</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5931.52</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3845,6 +4422,13 @@
         <v>0</v>
       </c>
       <c r="N70" t="inlineStr"/>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3895,6 +4479,15 @@
       <c r="N71" t="n">
         <v>0</v>
       </c>
+      <c r="O71" t="n">
+        <v>6</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2587.98</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3945,6 +4538,15 @@
       <c r="N72" t="n">
         <v>0</v>
       </c>
+      <c r="O72" t="n">
+        <v>9</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3487.05</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3995,6 +4597,15 @@
       <c r="N73" t="n">
         <v>0</v>
       </c>
+      <c r="O73" t="n">
+        <v>1</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4050</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4041,6 +4652,13 @@
         <v>0</v>
       </c>
       <c r="N74" t="inlineStr"/>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4091,6 +4709,15 @@
       <c r="N75" t="n">
         <v>0</v>
       </c>
+      <c r="O75" t="n">
+        <v>59</v>
+      </c>
+      <c r="P75" t="n">
+        <v>12790.61</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4137,6 +4764,13 @@
         <v>0</v>
       </c>
       <c r="N76" t="inlineStr"/>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4183,6 +4817,13 @@
         <v>0</v>
       </c>
       <c r="N77" t="inlineStr"/>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4233,6 +4874,15 @@
       <c r="N78" t="n">
         <v>0</v>
       </c>
+      <c r="O78" t="n">
+        <v>1849.61</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2848.4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4279,6 +4929,13 @@
         <v>0</v>
       </c>
       <c r="N79" t="inlineStr"/>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4329,6 +4986,15 @@
       <c r="N80" t="n">
         <v>0</v>
       </c>
+      <c r="O80" t="n">
+        <v>878.5599999999999</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5192.29</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4379,6 +5045,15 @@
       <c r="N81" t="n">
         <v>0</v>
       </c>
+      <c r="O81" t="n">
+        <v>1849.61</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3865.68</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4429,6 +5104,15 @@
       <c r="N82" t="n">
         <v>0</v>
       </c>
+      <c r="O82" t="n">
+        <v>1098.21</v>
+      </c>
+      <c r="P82" t="n">
+        <v>27652.93</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4475,6 +5159,13 @@
         <v>0</v>
       </c>
       <c r="N83" t="inlineStr"/>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4525,6 +5216,15 @@
       <c r="N84" t="n">
         <v>0</v>
       </c>
+      <c r="O84" t="n">
+        <v>1849.61</v>
+      </c>
+      <c r="P84" t="n">
+        <v>22805.69</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4571,6 +5271,13 @@
         <v>0</v>
       </c>
       <c r="N85" t="inlineStr"/>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4621,6 +5328,15 @@
       <c r="N86" t="n">
         <v>0</v>
       </c>
+      <c r="O86" t="n">
+        <v>460.82</v>
+      </c>
+      <c r="P86" t="n">
+        <v>25275.98</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4671,6 +5387,15 @@
       <c r="N87" t="n">
         <v>0</v>
       </c>
+      <c r="O87" t="n">
+        <v>875.79</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3345.52</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4721,6 +5446,15 @@
       <c r="N88" t="n">
         <v>0</v>
       </c>
+      <c r="O88" t="n">
+        <v>1849.61</v>
+      </c>
+      <c r="P88" t="n">
+        <v>144417.55</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4771,6 +5505,15 @@
       <c r="N89" t="n">
         <v>0</v>
       </c>
+      <c r="O89" t="n">
+        <v>171.34</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5198.46</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4821,6 +5564,15 @@
       <c r="N90" t="n">
         <v>0</v>
       </c>
+      <c r="O90" t="n">
+        <v>1849.61</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3458.77</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4871,6 +5623,15 @@
       <c r="N91" t="n">
         <v>0</v>
       </c>
+      <c r="O91" t="n">
+        <v>1088.25</v>
+      </c>
+      <c r="P91" t="n">
+        <v>2916.51</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4921,6 +5682,15 @@
       <c r="N92" t="n">
         <v>0</v>
       </c>
+      <c r="O92" t="n">
+        <v>1088.25</v>
+      </c>
+      <c r="P92" t="n">
+        <v>7595.99</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4971,6 +5741,15 @@
       <c r="N93" t="n">
         <v>0</v>
       </c>
+      <c r="O93" t="n">
+        <v>1849.61</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3477.27</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5017,6 +5796,13 @@
         <v>0</v>
       </c>
       <c r="N94" t="inlineStr"/>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5063,6 +5849,13 @@
         <v>0</v>
       </c>
       <c r="N95" t="inlineStr"/>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5113,6 +5906,15 @@
       <c r="N96" t="n">
         <v>0</v>
       </c>
+      <c r="O96" t="n">
+        <v>357.26</v>
+      </c>
+      <c r="P96" t="n">
+        <v>550.1799999999999</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5159,6 +5961,13 @@
         <v>0</v>
       </c>
       <c r="N97" t="inlineStr"/>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5209,6 +6018,15 @@
       <c r="N98" t="n">
         <v>0</v>
       </c>
+      <c r="O98" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="P98" t="n">
+        <v>280.6</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5259,6 +6077,15 @@
       <c r="N99" t="n">
         <v>0</v>
       </c>
+      <c r="O99" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="P99" t="n">
+        <v>88.66</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5309,6 +6136,15 @@
       <c r="N100" t="n">
         <v>0</v>
       </c>
+      <c r="O100" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="P100" t="n">
+        <v>303.48</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5359,6 +6195,15 @@
       <c r="N101" t="n">
         <v>0</v>
       </c>
+      <c r="O101" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="P101" t="n">
+        <v>376.69</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5405,6 +6250,13 @@
         <v>0</v>
       </c>
       <c r="N102" t="inlineStr"/>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5455,6 +6307,15 @@
       <c r="N103" t="n">
         <v>0</v>
       </c>
+      <c r="O103" t="n">
+        <v>5</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3815.05</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5505,6 +6366,15 @@
       <c r="N104" t="n">
         <v>0</v>
       </c>
+      <c r="O104" t="n">
+        <v>9</v>
+      </c>
+      <c r="P104" t="n">
+        <v>2479.32</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5555,6 +6425,15 @@
       <c r="N105" t="n">
         <v>0</v>
       </c>
+      <c r="O105" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="P105" t="n">
+        <v>1208.47</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -5605,6 +6484,15 @@
       <c r="N106" t="n">
         <v>0</v>
       </c>
+      <c r="O106" t="n">
+        <v>5</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1277.65</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -5655,6 +6543,15 @@
       <c r="N107" t="n">
         <v>0</v>
       </c>
+      <c r="O107" t="n">
+        <v>14</v>
+      </c>
+      <c r="P107" t="n">
+        <v>581.42</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -5701,6 +6598,13 @@
         <v>0</v>
       </c>
       <c r="N108" t="inlineStr"/>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5751,6 +6655,15 @@
       <c r="N109" t="n">
         <v>0</v>
       </c>
+      <c r="O109" t="n">
+        <v>55.24</v>
+      </c>
+      <c r="P109" t="n">
+        <v>11228.08</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5801,6 +6714,15 @@
       <c r="N110" t="n">
         <v>0</v>
       </c>
+      <c r="O110" t="n">
+        <v>440.17</v>
+      </c>
+      <c r="P110" t="n">
+        <v>48788.44</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5851,6 +6773,15 @@
       <c r="N111" t="n">
         <v>0</v>
       </c>
+      <c r="O111" t="n">
+        <v>41.18</v>
+      </c>
+      <c r="P111" t="n">
+        <v>3660.08</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5901,6 +6832,15 @@
       <c r="N112" t="n">
         <v>0</v>
       </c>
+      <c r="O112" t="n">
+        <v>35.55</v>
+      </c>
+      <c r="P112" t="n">
+        <v>2313.95</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5951,6 +6891,15 @@
       <c r="N113" t="n">
         <v>0</v>
       </c>
+      <c r="O113" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="P113" t="n">
+        <v>411.58</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5997,6 +6946,13 @@
         <v>0</v>
       </c>
       <c r="N114" t="inlineStr"/>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6047,6 +7003,15 @@
       <c r="N115" t="n">
         <v>0</v>
       </c>
+      <c r="O115" t="n">
+        <v>10</v>
+      </c>
+      <c r="P115" t="n">
+        <v>6786.4</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6097,6 +7062,15 @@
       <c r="N116" t="n">
         <v>0</v>
       </c>
+      <c r="O116" t="n">
+        <v>1</v>
+      </c>
+      <c r="P116" t="n">
+        <v>885.79</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6147,6 +7121,15 @@
       <c r="N117" t="n">
         <v>0</v>
       </c>
+      <c r="O117" t="n">
+        <v>3</v>
+      </c>
+      <c r="P117" t="n">
+        <v>1734.84</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6193,6 +7176,13 @@
         <v>0</v>
       </c>
       <c r="N118" t="inlineStr"/>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6243,6 +7233,15 @@
       <c r="N119" t="n">
         <v>0</v>
       </c>
+      <c r="O119" t="n">
+        <v>2</v>
+      </c>
+      <c r="P119" t="n">
+        <v>10188.54</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6293,6 +7292,15 @@
       <c r="N120" t="n">
         <v>0</v>
       </c>
+      <c r="O120" t="n">
+        <v>3</v>
+      </c>
+      <c r="P120" t="n">
+        <v>14176.35</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6343,6 +7351,15 @@
       <c r="N121" t="n">
         <v>0</v>
       </c>
+      <c r="O121" t="n">
+        <v>2</v>
+      </c>
+      <c r="P121" t="n">
+        <v>2646.36</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6393,6 +7410,15 @@
       <c r="N122" t="n">
         <v>0</v>
       </c>
+      <c r="O122" t="n">
+        <v>2</v>
+      </c>
+      <c r="P122" t="n">
+        <v>3510</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6443,6 +7469,15 @@
       <c r="N123" t="n">
         <v>0</v>
       </c>
+      <c r="O123" t="n">
+        <v>4</v>
+      </c>
+      <c r="P123" t="n">
+        <v>4860</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -6493,6 +7528,15 @@
       <c r="N124" t="n">
         <v>0</v>
       </c>
+      <c r="O124" t="n">
+        <v>1</v>
+      </c>
+      <c r="P124" t="n">
+        <v>1588.5</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -6539,6 +7583,13 @@
         <v>0</v>
       </c>
       <c r="N125" t="inlineStr"/>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -6589,6 +7640,15 @@
       <c r="N126" t="n">
         <v>0</v>
       </c>
+      <c r="O126" t="n">
+        <v>5</v>
+      </c>
+      <c r="P126" t="n">
+        <v>2084.35</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -6639,6 +7699,15 @@
       <c r="N127" t="n">
         <v>0</v>
       </c>
+      <c r="O127" t="n">
+        <v>9</v>
+      </c>
+      <c r="P127" t="n">
+        <v>2144.07</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -6685,6 +7754,13 @@
         <v>0</v>
       </c>
       <c r="N128" t="inlineStr"/>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -6735,6 +7811,15 @@
       <c r="N129" t="n">
         <v>0</v>
       </c>
+      <c r="O129" t="n">
+        <v>7</v>
+      </c>
+      <c r="P129" t="n">
+        <v>12712</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -6785,6 +7870,15 @@
       <c r="N130" t="n">
         <v>0</v>
       </c>
+      <c r="O130" t="n">
+        <v>4</v>
+      </c>
+      <c r="P130" t="n">
+        <v>7264</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -6835,6 +7929,15 @@
       <c r="N131" t="n">
         <v>0</v>
       </c>
+      <c r="O131" t="n">
+        <v>1</v>
+      </c>
+      <c r="P131" t="n">
+        <v>1892.61</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -6885,6 +7988,15 @@
       <c r="N132" t="n">
         <v>0</v>
       </c>
+      <c r="O132" t="n">
+        <v>4</v>
+      </c>
+      <c r="P132" t="n">
+        <v>6849.8</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6935,6 +8047,15 @@
       <c r="N133" t="n">
         <v>0</v>
       </c>
+      <c r="O133" t="n">
+        <v>4</v>
+      </c>
+      <c r="P133" t="n">
+        <v>7264</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6985,6 +8106,15 @@
       <c r="N134" t="n">
         <v>0</v>
       </c>
+      <c r="O134" t="n">
+        <v>4</v>
+      </c>
+      <c r="P134" t="n">
+        <v>5559.16</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7031,6 +8161,13 @@
         <v>0</v>
       </c>
       <c r="N135" t="inlineStr"/>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7081,6 +8218,15 @@
       <c r="N136" t="n">
         <v>0</v>
       </c>
+      <c r="O136" t="n">
+        <v>1359.43</v>
+      </c>
+      <c r="P136" t="n">
+        <v>14763.41</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7131,6 +8277,15 @@
       <c r="N137" t="n">
         <v>0</v>
       </c>
+      <c r="O137" t="n">
+        <v>227.83</v>
+      </c>
+      <c r="P137" t="n">
+        <v>2203.12</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7181,6 +8336,15 @@
       <c r="N138" t="n">
         <v>0</v>
       </c>
+      <c r="O138" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="P138" t="n">
+        <v>108.89</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7231,6 +8395,15 @@
       <c r="N139" t="n">
         <v>0</v>
       </c>
+      <c r="O139" t="n">
+        <v>327.01</v>
+      </c>
+      <c r="P139" t="n">
+        <v>3122.95</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7281,6 +8454,15 @@
       <c r="N140" t="n">
         <v>0</v>
       </c>
+      <c r="O140" t="n">
+        <v>30</v>
+      </c>
+      <c r="P140" t="n">
+        <v>626.4</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7327,6 +8509,13 @@
         <v>0</v>
       </c>
       <c r="N141" t="inlineStr"/>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7377,6 +8566,15 @@
       <c r="N142" t="n">
         <v>0</v>
       </c>
+      <c r="O142" t="n">
+        <v>1</v>
+      </c>
+      <c r="P142" t="n">
+        <v>51133.89</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -7423,6 +8621,13 @@
         <v>0</v>
       </c>
       <c r="N143" t="inlineStr"/>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -7473,6 +8678,15 @@
       <c r="N144" t="n">
         <v>0</v>
       </c>
+      <c r="O144" t="n">
+        <v>1</v>
+      </c>
+      <c r="P144" t="n">
+        <v>1335.03</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -7519,6 +8733,13 @@
         <v>0</v>
       </c>
       <c r="N145" t="inlineStr"/>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -7569,6 +8790,15 @@
       <c r="N146" t="n">
         <v>0</v>
       </c>
+      <c r="O146" t="n">
+        <v>1</v>
+      </c>
+      <c r="P146" t="n">
+        <v>1646.99</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -7615,6 +8845,13 @@
         <v>0</v>
       </c>
       <c r="N147" t="inlineStr"/>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -7661,6 +8898,13 @@
         <v>0</v>
       </c>
       <c r="N148" t="inlineStr"/>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -7711,6 +8955,15 @@
       <c r="N149" t="n">
         <v>0.24</v>
       </c>
+      <c r="O149" t="n">
+        <v>9505.49</v>
+      </c>
+      <c r="P149" t="n">
+        <v>14638.45</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -7757,6 +9010,13 @@
         <v>0</v>
       </c>
       <c r="N150" t="inlineStr"/>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -7807,6 +9067,15 @@
       <c r="N151" t="n">
         <v>0.86</v>
       </c>
+      <c r="O151" t="n">
+        <v>630.0599999999995</v>
+      </c>
+      <c r="P151" t="n">
+        <v>9728.129999999999</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -7857,6 +9126,15 @@
       <c r="N152" t="n">
         <v>0</v>
       </c>
+      <c r="O152" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P152" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -7907,6 +9185,15 @@
       <c r="N153" t="n">
         <v>0</v>
       </c>
+      <c r="O153" t="n">
+        <v>3</v>
+      </c>
+      <c r="P153" t="n">
+        <v>109.35</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -7957,6 +9244,15 @@
       <c r="N154" t="n">
         <v>0.86</v>
       </c>
+      <c r="O154" t="n">
+        <v>118.12</v>
+      </c>
+      <c r="P154" t="n">
+        <v>2974.27</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -8003,6 +9299,13 @@
         <v>0</v>
       </c>
       <c r="N155" t="inlineStr"/>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -8053,6 +9356,15 @@
       <c r="N156" t="n">
         <v>0.17</v>
       </c>
+      <c r="O156" t="n">
+        <v>2642.08</v>
+      </c>
+      <c r="P156" t="n">
+        <v>83436.89</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -8103,6 +9415,15 @@
       <c r="N157" t="n">
         <v>0</v>
       </c>
+      <c r="O157" t="n">
+        <v>269.94</v>
+      </c>
+      <c r="P157" t="n">
+        <v>8524.709999999999</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -8153,6 +9474,15 @@
       <c r="N158" t="n">
         <v>0.2</v>
       </c>
+      <c r="O158" t="n">
+        <v>9386.99</v>
+      </c>
+      <c r="P158" t="n">
+        <v>46371.73</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -8203,6 +9533,15 @@
       <c r="N159" t="n">
         <v>0</v>
       </c>
+      <c r="O159" t="n">
+        <v>829.8</v>
+      </c>
+      <c r="P159" t="n">
+        <v>4099.21</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -8253,6 +9592,15 @@
       <c r="N160" t="n">
         <v>0.21</v>
       </c>
+      <c r="O160" t="n">
+        <v>2785.08</v>
+      </c>
+      <c r="P160" t="n">
+        <v>70128.32000000001</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -8299,6 +9647,13 @@
         <v>0</v>
       </c>
       <c r="N161" t="inlineStr"/>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -8349,6 +9704,15 @@
       <c r="N162" t="n">
         <v>0.2</v>
       </c>
+      <c r="O162" t="n">
+        <v>9386.99</v>
+      </c>
+      <c r="P162" t="n">
+        <v>221345.23</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -8399,6 +9763,15 @@
       <c r="N163" t="n">
         <v>0</v>
       </c>
+      <c r="O163" t="n">
+        <v>829.8</v>
+      </c>
+      <c r="P163" t="n">
+        <v>19566.68</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -8445,6 +9818,13 @@
         <v>0</v>
       </c>
       <c r="N164" t="inlineStr"/>
+      <c r="O164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -8495,6 +9875,15 @@
       <c r="N165" t="n">
         <v>0.24</v>
       </c>
+      <c r="O165" t="n">
+        <v>1656.75</v>
+      </c>
+      <c r="P165" t="n">
+        <v>46968.86</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -8545,6 +9934,15 @@
       <c r="N166" t="n">
         <v>0</v>
       </c>
+      <c r="O166" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="P166" t="n">
+        <v>556.79</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -8595,6 +9993,15 @@
       <c r="N167" t="n">
         <v>0.23</v>
       </c>
+      <c r="O167" t="n">
+        <v>1221.76</v>
+      </c>
+      <c r="P167" t="n">
+        <v>324438.37</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -8645,6 +10052,15 @@
       <c r="N168" t="n">
         <v>0</v>
       </c>
+      <c r="O168" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="P168" t="n">
+        <v>13080.2</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -8695,6 +10111,15 @@
       <c r="N169" t="n">
         <v>0</v>
       </c>
+      <c r="O169" t="n">
+        <v>93.83</v>
+      </c>
+      <c r="P169" t="n">
+        <v>33406.29</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -8745,6 +10170,15 @@
       <c r="N170" t="n">
         <v>0</v>
       </c>
+      <c r="O170" t="n">
+        <v>3059.21</v>
+      </c>
+      <c r="P170" t="n">
+        <v>9085.85</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -8795,6 +10229,15 @@
       <c r="N171" t="n">
         <v>0.2</v>
       </c>
+      <c r="O171" t="n">
+        <v>9942.970000000001</v>
+      </c>
+      <c r="P171" t="n">
+        <v>18692.78</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -8841,6 +10284,13 @@
         <v>0</v>
       </c>
       <c r="N172" t="inlineStr"/>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -8891,6 +10341,15 @@
       <c r="N173" t="n">
         <v>0</v>
       </c>
+      <c r="O173" t="n">
+        <v>21</v>
+      </c>
+      <c r="P173" t="n">
+        <v>2592.24</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -8941,6 +10400,15 @@
       <c r="N174" t="n">
         <v>0</v>
       </c>
+      <c r="O174" t="n">
+        <v>99</v>
+      </c>
+      <c r="P174" t="n">
+        <v>8701.110000000001</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -8991,6 +10459,15 @@
       <c r="N175" t="n">
         <v>0</v>
       </c>
+      <c r="O175" t="n">
+        <v>497.92</v>
+      </c>
+      <c r="P175" t="n">
+        <v>94241.32000000001</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -9037,6 +10514,13 @@
         <v>0</v>
       </c>
       <c r="N176" t="inlineStr"/>
+      <c r="O176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -9083,6 +10567,13 @@
         <v>0</v>
       </c>
       <c r="N177" t="inlineStr"/>
+      <c r="O177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -9129,6 +10620,13 @@
         <v>0</v>
       </c>
       <c r="N178" t="inlineStr"/>
+      <c r="O178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -9179,6 +10677,15 @@
       <c r="N179" t="n">
         <v>0.17</v>
       </c>
+      <c r="O179" t="n">
+        <v>353.49</v>
+      </c>
+      <c r="P179" t="n">
+        <v>544.38</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -9225,6 +10732,13 @@
         <v>0</v>
       </c>
       <c r="N180" t="inlineStr"/>
+      <c r="O180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -9275,6 +10789,15 @@
       <c r="N181" t="n">
         <v>0.06</v>
       </c>
+      <c r="O181" t="n">
+        <v>180.23</v>
+      </c>
+      <c r="P181" t="n">
+        <v>5691.67</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0.9399999999999999</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -9325,6 +10848,15 @@
       <c r="N182" t="n">
         <v>0.06</v>
       </c>
+      <c r="O182" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="P182" t="n">
+        <v>5673.06</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0.9399999999999999</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -9371,6 +10903,13 @@
         <v>0</v>
       </c>
       <c r="N183" t="inlineStr"/>
+      <c r="O183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -9421,6 +10960,15 @@
       <c r="N184" t="n">
         <v>0.33</v>
       </c>
+      <c r="O184" t="n">
+        <v>566.35</v>
+      </c>
+      <c r="P184" t="n">
+        <v>19069</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -9471,6 +11019,15 @@
       <c r="N185" t="n">
         <v>0.17</v>
       </c>
+      <c r="O185" t="n">
+        <v>14604.34</v>
+      </c>
+      <c r="P185" t="n">
+        <v>59293.62</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -9521,6 +11078,15 @@
       <c r="N186" t="n">
         <v>0.31</v>
       </c>
+      <c r="O186" t="n">
+        <v>174.76</v>
+      </c>
+      <c r="P186" t="n">
+        <v>57359.72</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -9571,6 +11137,15 @@
       <c r="N187" t="n">
         <v>0.17</v>
       </c>
+      <c r="O187" t="n">
+        <v>2464.87</v>
+      </c>
+      <c r="P187" t="n">
+        <v>43307.77</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -9621,6 +11196,15 @@
       <c r="N188" t="n">
         <v>0.28</v>
       </c>
+      <c r="O188" t="n">
+        <v>919.97</v>
+      </c>
+      <c r="P188" t="n">
+        <v>1729.54</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -9671,6 +11255,15 @@
       <c r="N189" t="n">
         <v>0</v>
       </c>
+      <c r="O189" t="n">
+        <v>2826.97</v>
+      </c>
+      <c r="P189" t="n">
+        <v>37118.12</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -9717,6 +11310,13 @@
         <v>0</v>
       </c>
       <c r="N190" t="inlineStr"/>
+      <c r="O190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -9763,6 +11363,13 @@
         <v>0</v>
       </c>
       <c r="N191" t="inlineStr"/>
+      <c r="O191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -9813,6 +11420,15 @@
       <c r="N192" t="n">
         <v>0</v>
       </c>
+      <c r="O192" t="n">
+        <v>234.63</v>
+      </c>
+      <c r="P192" t="n">
+        <v>361.33</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -9859,6 +11475,13 @@
         <v>0</v>
       </c>
       <c r="N193" t="inlineStr"/>
+      <c r="O193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -9909,6 +11532,15 @@
       <c r="N194" t="n">
         <v>0</v>
       </c>
+      <c r="O194" t="n">
+        <v>129.04</v>
+      </c>
+      <c r="P194" t="n">
+        <v>4075.08</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -9959,6 +11591,15 @@
       <c r="N195" t="n">
         <v>0</v>
       </c>
+      <c r="O195" t="n">
+        <v>30.17</v>
+      </c>
+      <c r="P195" t="n">
+        <v>1335.32</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -10009,6 +11650,15 @@
       <c r="N196" t="n">
         <v>0</v>
       </c>
+      <c r="O196" t="n">
+        <v>123.6</v>
+      </c>
+      <c r="P196" t="n">
+        <v>3112.25</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -10055,6 +11705,13 @@
         <v>0</v>
       </c>
       <c r="N197" t="inlineStr"/>
+      <c r="O197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -10105,6 +11762,15 @@
       <c r="N198" t="n">
         <v>0</v>
       </c>
+      <c r="O198" t="n">
+        <v>234.63</v>
+      </c>
+      <c r="P198" t="n">
+        <v>2489.42</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -10155,6 +11821,15 @@
       <c r="N199" t="n">
         <v>0</v>
       </c>
+      <c r="O199" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="P199" t="n">
+        <v>31599.3</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -10205,6 +11880,15 @@
       <c r="N200" t="n">
         <v>0</v>
       </c>
+      <c r="O200" t="n">
+        <v>6241.05</v>
+      </c>
+      <c r="P200" t="n">
+        <v>25338.66</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -10255,6 +11939,15 @@
       <c r="N201" t="n">
         <v>0</v>
       </c>
+      <c r="O201" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="P201" t="n">
+        <v>49873.77</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -10305,6 +11998,15 @@
       <c r="N202" t="n">
         <v>0</v>
       </c>
+      <c r="O202" t="n">
+        <v>795.28</v>
+      </c>
+      <c r="P202" t="n">
+        <v>13973.07</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -10355,6 +12057,15 @@
       <c r="N203" t="n">
         <v>0</v>
       </c>
+      <c r="O203" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="P203" t="n">
+        <v>1764.38</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -10405,6 +12116,15 @@
       <c r="N204" t="n">
         <v>0</v>
       </c>
+      <c r="O204" t="n">
+        <v>335.18</v>
+      </c>
+      <c r="P204" t="n">
+        <v>54299.16</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -10451,6 +12171,13 @@
         <v>0</v>
       </c>
       <c r="N205" t="inlineStr"/>
+      <c r="O205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -10497,6 +12224,13 @@
         <v>0</v>
       </c>
       <c r="N206" t="inlineStr"/>
+      <c r="O206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -10543,6 +12277,13 @@
         <v>0</v>
       </c>
       <c r="N207" t="inlineStr"/>
+      <c r="O207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -10593,6 +12334,15 @@
       <c r="N208" t="n">
         <v>0.51</v>
       </c>
+      <c r="O208" t="n">
+        <v>1180.94</v>
+      </c>
+      <c r="P208" t="n">
+        <v>1818.65</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -10643,6 +12393,15 @@
       <c r="N209" t="n">
         <v>0.49</v>
       </c>
+      <c r="O209" t="n">
+        <v>281.85</v>
+      </c>
+      <c r="P209" t="n">
+        <v>34563.27</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -10689,6 +12448,13 @@
         <v>0</v>
       </c>
       <c r="N210" t="inlineStr"/>
+      <c r="O210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -10739,6 +12505,15 @@
       <c r="N211" t="n">
         <v>0.43</v>
       </c>
+      <c r="O211" t="n">
+        <v>2551.63</v>
+      </c>
+      <c r="P211" t="n">
+        <v>80580.48</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -10789,6 +12564,15 @@
       <c r="N212" t="n">
         <v>0.49</v>
       </c>
+      <c r="O212" t="n">
+        <v>2477.09</v>
+      </c>
+      <c r="P212" t="n">
+        <v>62373.13</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -10835,6 +12619,13 @@
         <v>0</v>
       </c>
       <c r="N213" t="inlineStr"/>
+      <c r="O213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -10885,6 +12676,15 @@
       <c r="N214" t="n">
         <v>0.58</v>
       </c>
+      <c r="O214" t="n">
+        <v>1010.05</v>
+      </c>
+      <c r="P214" t="n">
+        <v>10716.63</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -10935,6 +12735,15 @@
       <c r="N215" t="n">
         <v>0.44</v>
       </c>
+      <c r="O215" t="n">
+        <v>4953.45</v>
+      </c>
+      <c r="P215" t="n">
+        <v>166782.66</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -10985,6 +12794,15 @@
       <c r="N216" t="n">
         <v>0.37</v>
       </c>
+      <c r="O216" t="n">
+        <v>46440.37</v>
+      </c>
+      <c r="P216" t="n">
+        <v>188547.91</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -11035,6 +12853,15 @@
       <c r="N217" t="n">
         <v>0.43</v>
       </c>
+      <c r="O217" t="n">
+        <v>930.76</v>
+      </c>
+      <c r="P217" t="n">
+        <v>247312.23</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -11085,6 +12912,15 @@
       <c r="N218" t="n">
         <v>0.44</v>
       </c>
+      <c r="O218" t="n">
+        <v>945</v>
+      </c>
+      <c r="P218" t="n">
+        <v>14108.85</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -11135,6 +12971,15 @@
       <c r="N219" t="n">
         <v>0.44</v>
       </c>
+      <c r="O219" t="n">
+        <v>916</v>
+      </c>
+      <c r="P219" t="n">
+        <v>33672.16</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -11185,6 +13030,15 @@
       <c r="N220" t="n">
         <v>0.43</v>
       </c>
+      <c r="O220" t="n">
+        <v>6708.789999999999</v>
+      </c>
+      <c r="P220" t="n">
+        <v>11069.5</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -11235,6 +13089,15 @@
       <c r="N221" t="n">
         <v>0</v>
       </c>
+      <c r="O221" t="n">
+        <v>330</v>
+      </c>
+      <c r="P221" t="n">
+        <v>29700</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -11285,6 +13148,15 @@
       <c r="N222" t="n">
         <v>0</v>
       </c>
+      <c r="O222" t="n">
+        <v>13</v>
+      </c>
+      <c r="P222" t="n">
+        <v>35100</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -11331,6 +13203,13 @@
         <v>0</v>
       </c>
       <c r="N223" t="inlineStr"/>
+      <c r="O223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -11380,6 +13259,15 @@
       </c>
       <c r="N224" t="n">
         <v>0</v>
+      </c>
+      <c r="O224" t="n">
+        <v>1</v>
+      </c>
+      <c r="P224" t="n">
+        <v>27140.24</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/out/out.xlsx
+++ b/out/out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="417">
   <si>
     <t>ITEM.</t>
   </si>
@@ -34,40 +34,19 @@
     <t>PRESUPUESTO OFERTA S/.</t>
   </si>
   <si>
-    <t>ACUMULADO ANTERIOR</t>
-  </si>
-  <si>
-    <t>costant</t>
-  </si>
-  <si>
-    <t>AVANCE ACTUAL</t>
-  </si>
-  <si>
-    <t>costval</t>
-  </si>
-  <si>
-    <t>macum</t>
-  </si>
-  <si>
-    <t>costacum</t>
-  </si>
-  <si>
-    <t>poracum</t>
-  </si>
-  <si>
-    <t>msald</t>
-  </si>
-  <si>
-    <t>costsald</t>
-  </si>
-  <si>
-    <t>porsald</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1.01</t>
+    <t>METRADO</t>
+  </si>
+  <si>
+    <t>S/.</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>01.01</t>
   </si>
   <si>
     <t>01.01.01</t>
@@ -130,7 +109,7 @@
     <t>01.01.02.02.01</t>
   </si>
   <si>
-    <t>1.02</t>
+    <t>01.02</t>
   </si>
   <si>
     <t>01.02.01</t>
@@ -148,10 +127,10 @@
     <t>01.02.05</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2.01</t>
+    <t>02</t>
+  </si>
+  <si>
+    <t>02.01</t>
   </si>
   <si>
     <t>02.01.01</t>
@@ -235,7 +214,7 @@
     <t>02.01.06.02</t>
   </si>
   <si>
-    <t>2.02</t>
+    <t>02.02</t>
   </si>
   <si>
     <t>02.02.01</t>
@@ -286,7 +265,7 @@
     <t>02.02.03.01</t>
   </si>
   <si>
-    <t>2.03</t>
+    <t>02.03</t>
   </si>
   <si>
     <t>02.03.01</t>
@@ -340,16 +319,16 @@
     <t>02.03.04.08</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3.01</t>
+    <t>03</t>
+  </si>
+  <si>
+    <t>03.01</t>
   </si>
   <si>
     <t>03.01.01</t>
   </si>
   <si>
-    <t>3.02</t>
+    <t>03.02</t>
   </si>
   <si>
     <t>03.02.01</t>
@@ -364,7 +343,7 @@
     <t>03.02.04</t>
   </si>
   <si>
-    <t>3.03</t>
+    <t>03.03</t>
   </si>
   <si>
     <t>03.03.01</t>
@@ -382,7 +361,7 @@
     <t>03.03.05</t>
   </si>
   <si>
-    <t>3.04</t>
+    <t>03.04</t>
   </si>
   <si>
     <t>03.04.01</t>
@@ -400,7 +379,7 @@
     <t>03.04.05</t>
   </si>
   <si>
-    <t>3.05</t>
+    <t>03.05</t>
   </si>
   <si>
     <t>03.05.01</t>
@@ -412,7 +391,7 @@
     <t>03.05.03</t>
   </si>
   <si>
-    <t>3.06</t>
+    <t>03.06</t>
   </si>
   <si>
     <t>03.06.01</t>
@@ -433,7 +412,7 @@
     <t>03.06.06</t>
   </si>
   <si>
-    <t>3.07</t>
+    <t>03.07</t>
   </si>
   <si>
     <t>03.07.01</t>
@@ -442,7 +421,7 @@
     <t>03.07.02</t>
   </si>
   <si>
-    <t>3.08</t>
+    <t>03.08</t>
   </si>
   <si>
     <t>03.08.01</t>
@@ -463,7 +442,7 @@
     <t>03.08.06</t>
   </si>
   <si>
-    <t>3.09</t>
+    <t>03.09</t>
   </si>
   <si>
     <t>03.09.01</t>
@@ -481,34 +460,34 @@
     <t>03.09.05</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>03.10</t>
   </si>
   <si>
     <t>03.10.01</t>
   </si>
   <si>
-    <t>3.11</t>
+    <t>03.11</t>
   </si>
   <si>
     <t>03.11.01</t>
   </si>
   <si>
-    <t>3.12</t>
+    <t>03.12</t>
   </si>
   <si>
     <t>03.12.01</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>4.01</t>
+    <t>04</t>
+  </si>
+  <si>
+    <t>04.01</t>
   </si>
   <si>
     <t>04.01.01</t>
   </si>
   <si>
-    <t>4.02</t>
+    <t>04.02</t>
   </si>
   <si>
     <t>04.02.01</t>
@@ -523,7 +502,7 @@
     <t>04.02.04</t>
   </si>
   <si>
-    <t>4.03</t>
+    <t>04.03</t>
   </si>
   <si>
     <t>04.03.01</t>
@@ -541,7 +520,7 @@
     <t>04.03.05</t>
   </si>
   <si>
-    <t>4.04</t>
+    <t>04.04</t>
   </si>
   <si>
     <t>04.04.01</t>
@@ -550,7 +529,7 @@
     <t>04.04.02</t>
   </si>
   <si>
-    <t>4.05</t>
+    <t>04.05</t>
   </si>
   <si>
     <t>04.05.01</t>
@@ -574,7 +553,7 @@
     <t>04.05.07</t>
   </si>
   <si>
-    <t>4.06</t>
+    <t>04.06</t>
   </si>
   <si>
     <t>04.06.01</t>
@@ -586,10 +565,10 @@
     <t>04.06.03</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>5.01</t>
+    <t>05</t>
+  </si>
+  <si>
+    <t>05.01</t>
   </si>
   <si>
     <t>05.01.01</t>
@@ -628,7 +607,7 @@
     <t>05.01.03.06</t>
   </si>
   <si>
-    <t>5.02</t>
+    <t>05.02</t>
   </si>
   <si>
     <t>05.02.01</t>
@@ -673,10 +652,10 @@
     <t>05.02.03.07</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>6.01</t>
+    <t>06</t>
+  </si>
+  <si>
+    <t>06.01</t>
   </si>
   <si>
     <t>06.01.01</t>
@@ -727,10 +706,10 @@
     <t>06.01.03.09</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>7.01</t>
+    <t>07</t>
+  </si>
+  <si>
+    <t>07.01</t>
   </si>
   <si>
     <t>OBRAS PROVISIONALES, TRABAJOS PRELIMINARES, SEGURIDAD Y SALUD EN OBRA</t>
@@ -1675,36 +1654,36 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1745,10 +1724,10 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1789,10 +1768,10 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1833,10 +1812,10 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1877,13 +1856,13 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1927,13 +1906,13 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D7">
         <v>1800</v>
@@ -1977,13 +1956,13 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -2027,13 +2006,13 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C9" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -2077,10 +2056,10 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2121,10 +2100,10 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2165,13 +2144,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C12" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2215,13 +2194,13 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C13" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2265,10 +2244,10 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2309,13 +2288,13 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C15" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2359,10 +2338,10 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2403,13 +2382,13 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C17" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2453,13 +2432,13 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C18" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2503,10 +2482,10 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2547,10 +2526,10 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2591,13 +2570,13 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C21" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2641,10 +2620,10 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2685,13 +2664,13 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C23" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D23">
         <v>36901.11</v>
@@ -2735,10 +2714,10 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2779,13 +2758,13 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C25" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2829,13 +2808,13 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C26" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2879,13 +2858,13 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C27" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2929,13 +2908,13 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C28" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2979,13 +2958,13 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C29" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3029,10 +3008,10 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3073,10 +3052,10 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -3117,10 +3096,10 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -3161,13 +3140,13 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C33" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D33">
         <v>15662.29</v>
@@ -3211,13 +3190,13 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C34" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D34">
         <v>3639.35</v>
@@ -3261,13 +3240,13 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C35" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D35">
         <v>3356.48</v>
@@ -3311,13 +3290,13 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C36" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D36">
         <v>197.79</v>
@@ -3361,13 +3340,13 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C37" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D37">
         <v>2225.5</v>
@@ -3411,10 +3390,10 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -3455,13 +3434,13 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C39" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D39">
         <v>20854.39</v>
@@ -3505,10 +3484,10 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -3549,13 +3528,13 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C41" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D41">
         <v>13810.07</v>
@@ -3599,13 +3578,13 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C42" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D42">
         <v>4.38</v>
@@ -3649,13 +3628,13 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C43" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D43">
         <v>20854.39</v>
@@ -3699,13 +3678,13 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C44" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D44">
         <v>15342.94</v>
@@ -3749,10 +3728,10 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3793,13 +3772,13 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C46" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D46">
         <v>20854.39</v>
@@ -3843,10 +3822,10 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -3887,13 +3866,13 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C48" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D48">
         <v>8299</v>
@@ -3937,13 +3916,13 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C49" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D49">
         <v>7215.16</v>
@@ -3987,13 +3966,13 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C50" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D50">
         <v>6619.44</v>
@@ -4037,13 +4016,13 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C51" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D51">
         <v>20854.39</v>
@@ -4087,13 +4066,13 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C52" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D52">
         <v>20854.39</v>
@@ -4137,13 +4116,13 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C53" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D53">
         <v>11956.99</v>
@@ -4187,13 +4166,13 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C54" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D54">
         <v>11956.99</v>
@@ -4237,13 +4216,13 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C55" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D55">
         <v>20854.39</v>
@@ -4287,10 +4266,10 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -4331,13 +4310,13 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C57" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D57">
         <v>35196.47</v>
@@ -4381,13 +4360,13 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C58" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D58">
         <v>43</v>
@@ -4431,10 +4410,10 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -4475,10 +4454,10 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -4519,13 +4498,13 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C61" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D61">
         <v>4436.16</v>
@@ -4569,13 +4548,13 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C62" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D62">
         <v>1111.75</v>
@@ -4619,13 +4598,13 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C63" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D63">
         <v>9</v>
@@ -4669,13 +4648,13 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C64" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D64">
         <v>1107</v>
@@ -4719,10 +4698,10 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -4763,10 +4742,10 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -4807,13 +4786,13 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C67" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D67">
         <v>39</v>
@@ -4857,10 +4836,10 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -4901,13 +4880,13 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C69" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D69">
         <v>14</v>
@@ -4951,10 +4930,10 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4995,13 +4974,13 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C71" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D71">
         <v>6</v>
@@ -5045,13 +5024,13 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C72" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D72">
         <v>9</v>
@@ -5095,13 +5074,13 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C73" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -5145,10 +5124,10 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -5189,13 +5168,13 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C75" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D75">
         <v>59</v>
@@ -5239,10 +5218,10 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -5283,10 +5262,10 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -5327,13 +5306,13 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C78" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D78">
         <v>1849.61</v>
@@ -5377,10 +5356,10 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -5421,13 +5400,13 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C80" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D80">
         <v>878.5599999999999</v>
@@ -5471,13 +5450,13 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C81" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D81">
         <v>1849.61</v>
@@ -5521,13 +5500,13 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C82" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D82">
         <v>1098.21</v>
@@ -5571,10 +5550,10 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -5615,13 +5594,13 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C84" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D84">
         <v>1849.61</v>
@@ -5665,10 +5644,10 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -5709,13 +5688,13 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C86" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D86">
         <v>460.82</v>
@@ -5759,13 +5738,13 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C87" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D87">
         <v>875.79</v>
@@ -5809,13 +5788,13 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C88" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D88">
         <v>1849.61</v>
@@ -5859,13 +5838,13 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C89" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D89">
         <v>171.34</v>
@@ -5909,13 +5888,13 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C90" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D90">
         <v>1849.61</v>
@@ -5959,13 +5938,13 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C91" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D91">
         <v>1088.25</v>
@@ -6009,13 +5988,13 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C92" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D92">
         <v>1088.25</v>
@@ -6059,13 +6038,13 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C93" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D93">
         <v>1849.61</v>
@@ -6109,10 +6088,10 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -6153,10 +6132,10 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -6197,13 +6176,13 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C96" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D96">
         <v>357.26</v>
@@ -6247,10 +6226,10 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -6291,13 +6270,13 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C98" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D98">
         <v>48.8</v>
@@ -6341,13 +6320,13 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C99" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D99">
         <v>10.76</v>
@@ -6391,13 +6370,13 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C100" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D100">
         <v>9.609999999999999</v>
@@ -6441,13 +6420,13 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C101" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D101">
         <v>14.96</v>
@@ -6491,10 +6470,10 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -6535,13 +6514,13 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C103" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D103">
         <v>5</v>
@@ -6585,13 +6564,13 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C104" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D104">
         <v>9</v>
@@ -6635,13 +6614,13 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C105" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D105">
         <v>4.61</v>
@@ -6685,13 +6664,13 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C106" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D106">
         <v>5</v>
@@ -6735,13 +6714,13 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B107" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C107" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D107">
         <v>14</v>
@@ -6785,10 +6764,10 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -6829,13 +6808,13 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C109" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D109">
         <v>55.24</v>
@@ -6879,13 +6858,13 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B110" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C110" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D110">
         <v>440.17</v>
@@ -6929,13 +6908,13 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B111" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C111" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D111">
         <v>41.18</v>
@@ -6979,13 +6958,13 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C112" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D112">
         <v>35.55</v>
@@ -7029,13 +7008,13 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C113" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D113">
         <v>5.33</v>
@@ -7079,10 +7058,10 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -7123,13 +7102,13 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C115" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D115">
         <v>10</v>
@@ -7173,13 +7152,13 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C116" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -7223,13 +7202,13 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C117" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D117">
         <v>3</v>
@@ -7273,10 +7252,10 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -7317,13 +7296,13 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C119" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -7367,13 +7346,13 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C120" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D120">
         <v>3</v>
@@ -7417,13 +7396,13 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C121" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -7467,13 +7446,13 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C122" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D122">
         <v>2</v>
@@ -7517,13 +7496,13 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B123" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C123" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D123">
         <v>4</v>
@@ -7567,13 +7546,13 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C124" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -7617,10 +7596,10 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -7661,13 +7640,13 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C126" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D126">
         <v>5</v>
@@ -7711,13 +7690,13 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C127" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D127">
         <v>9</v>
@@ -7761,10 +7740,10 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -7805,13 +7784,13 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B129" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C129" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D129">
         <v>7</v>
@@ -7855,13 +7834,13 @@
     </row>
     <row r="130" spans="1:16">
       <c r="A130" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B130" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C130" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D130">
         <v>4</v>
@@ -7905,13 +7884,13 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B131" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C131" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -7955,13 +7934,13 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B132" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C132" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D132">
         <v>4</v>
@@ -8005,13 +7984,13 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B133" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C133" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D133">
         <v>4</v>
@@ -8055,13 +8034,13 @@
     </row>
     <row r="134" spans="1:16">
       <c r="A134" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B134" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C134" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D134">
         <v>4</v>
@@ -8105,10 +8084,10 @@
     </row>
     <row r="135" spans="1:16">
       <c r="A135" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B135" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -8149,13 +8128,13 @@
     </row>
     <row r="136" spans="1:16">
       <c r="A136" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B136" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C136" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D136">
         <v>1359.43</v>
@@ -8199,13 +8178,13 @@
     </row>
     <row r="137" spans="1:16">
       <c r="A137" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B137" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C137" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D137">
         <v>227.83</v>
@@ -8249,13 +8228,13 @@
     </row>
     <row r="138" spans="1:16">
       <c r="A138" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B138" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C138" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D138">
         <v>13.56</v>
@@ -8299,13 +8278,13 @@
     </row>
     <row r="139" spans="1:16">
       <c r="A139" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B139" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C139" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D139">
         <v>327.01</v>
@@ -8349,13 +8328,13 @@
     </row>
     <row r="140" spans="1:16">
       <c r="A140" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B140" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C140" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D140">
         <v>30</v>
@@ -8399,10 +8378,10 @@
     </row>
     <row r="141" spans="1:16">
       <c r="A141" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B141" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -8443,13 +8422,13 @@
     </row>
     <row r="142" spans="1:16">
       <c r="A142" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B142" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C142" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -8493,10 +8472,10 @@
     </row>
     <row r="143" spans="1:16">
       <c r="A143" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B143" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -8537,13 +8516,13 @@
     </row>
     <row r="144" spans="1:16">
       <c r="A144" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B144" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C144" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -8587,10 +8566,10 @@
     </row>
     <row r="145" spans="1:16">
       <c r="A145" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B145" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -8631,13 +8610,13 @@
     </row>
     <row r="146" spans="1:16">
       <c r="A146" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B146" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C146" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -8681,10 +8660,10 @@
     </row>
     <row r="147" spans="1:16">
       <c r="A147" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B147" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -8725,10 +8704,10 @@
     </row>
     <row r="148" spans="1:16">
       <c r="A148" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B148" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -8769,13 +8748,13 @@
     </row>
     <row r="149" spans="1:16">
       <c r="A149" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B149" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C149" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D149">
         <v>12496.26</v>
@@ -8819,10 +8798,10 @@
     </row>
     <row r="150" spans="1:16">
       <c r="A150" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B150" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -8863,13 +8842,13 @@
     </row>
     <row r="151" spans="1:16">
       <c r="A151" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B151" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C151" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D151">
         <v>4394.24</v>
@@ -8913,13 +8892,13 @@
     </row>
     <row r="152" spans="1:16">
       <c r="A152" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B152" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C152" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D152">
         <v>1.08</v>
@@ -8963,13 +8942,13 @@
     </row>
     <row r="153" spans="1:16">
       <c r="A153" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B153" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C153" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D153">
         <v>3</v>
@@ -9013,13 +8992,13 @@
     </row>
     <row r="154" spans="1:16">
       <c r="A154" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B154" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C154" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D154">
         <v>823.92</v>
@@ -9063,10 +9042,10 @@
     </row>
     <row r="155" spans="1:16">
       <c r="A155" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B155" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -9107,13 +9086,13 @@
     </row>
     <row r="156" spans="1:16">
       <c r="A156" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B156" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C156" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D156">
         <v>3193.44</v>
@@ -9157,13 +9136,13 @@
     </row>
     <row r="157" spans="1:16">
       <c r="A157" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B157" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C157" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D157">
         <v>269.94</v>
@@ -9207,13 +9186,13 @@
     </row>
     <row r="158" spans="1:16">
       <c r="A158" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B158" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C158" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D158">
         <v>11666.46</v>
@@ -9257,13 +9236,13 @@
     </row>
     <row r="159" spans="1:16">
       <c r="A159" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B159" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C159" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D159">
         <v>829.8</v>
@@ -9307,13 +9286,13 @@
     </row>
     <row r="160" spans="1:16">
       <c r="A160" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B160" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C160" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D160">
         <v>3505.31</v>
@@ -9357,10 +9336,10 @@
     </row>
     <row r="161" spans="1:16">
       <c r="A161" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B161" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -9401,13 +9380,13 @@
     </row>
     <row r="162" spans="1:16">
       <c r="A162" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B162" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C162" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D162">
         <v>11666.46</v>
@@ -9451,13 +9430,13 @@
     </row>
     <row r="163" spans="1:16">
       <c r="A163" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B163" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C163" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D163">
         <v>829.8</v>
@@ -9501,10 +9480,10 @@
     </row>
     <row r="164" spans="1:16">
       <c r="A164" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B164" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -9545,13 +9524,13 @@
     </row>
     <row r="165" spans="1:16">
       <c r="A165" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B165" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C165" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D165">
         <v>2177.87</v>
@@ -9595,13 +9574,13 @@
     </row>
     <row r="166" spans="1:16">
       <c r="A166" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B166" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C166" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D166">
         <v>19.64</v>
@@ -9645,13 +9624,13 @@
     </row>
     <row r="167" spans="1:16">
       <c r="A167" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B167" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C167" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D167">
         <v>1580.34</v>
@@ -9695,13 +9674,13 @@
     </row>
     <row r="168" spans="1:16">
       <c r="A168" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B168" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C168" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D168">
         <v>43.56</v>
@@ -9745,13 +9724,13 @@
     </row>
     <row r="169" spans="1:16">
       <c r="A169" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B169" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C169" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D169">
         <v>93.83</v>
@@ -9795,13 +9774,13 @@
     </row>
     <row r="170" spans="1:16">
       <c r="A170" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B170" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C170" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D170">
         <v>3059.21</v>
@@ -9845,13 +9824,13 @@
     </row>
     <row r="171" spans="1:16">
       <c r="A171" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B171" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C171" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D171">
         <v>12496.26</v>
@@ -9895,10 +9874,10 @@
     </row>
     <row r="172" spans="1:16">
       <c r="A172" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B172" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -9939,13 +9918,13 @@
     </row>
     <row r="173" spans="1:16">
       <c r="A173" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B173" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C173" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D173">
         <v>21</v>
@@ -9989,13 +9968,13 @@
     </row>
     <row r="174" spans="1:16">
       <c r="A174" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B174" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C174" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D174">
         <v>99</v>
@@ -10039,13 +10018,13 @@
     </row>
     <row r="175" spans="1:16">
       <c r="A175" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B175" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C175" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D175">
         <v>497.92</v>
@@ -10089,10 +10068,10 @@
     </row>
     <row r="176" spans="1:16">
       <c r="A176" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B176" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -10133,10 +10112,10 @@
     </row>
     <row r="177" spans="1:16">
       <c r="A177" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B177" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -10177,10 +10156,10 @@
     </row>
     <row r="178" spans="1:16">
       <c r="A178" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B178" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -10221,13 +10200,13 @@
     </row>
     <row r="179" spans="1:16">
       <c r="A179" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B179" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C179" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D179">
         <v>424.05</v>
@@ -10271,10 +10250,10 @@
     </row>
     <row r="180" spans="1:16">
       <c r="A180" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B180" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -10315,13 +10294,13 @@
     </row>
     <row r="181" spans="1:16">
       <c r="A181" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B181" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C181" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D181">
         <v>190.82</v>
@@ -10365,13 +10344,13 @@
     </row>
     <row r="182" spans="1:16">
       <c r="A182" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B182" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C182" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D182">
         <v>238.53</v>
@@ -10415,10 +10394,10 @@
     </row>
     <row r="183" spans="1:16">
       <c r="A183" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B183" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -10459,13 +10438,13 @@
     </row>
     <row r="184" spans="1:16">
       <c r="A184" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B184" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C184" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D184">
         <v>848.09</v>
@@ -10509,13 +10488,13 @@
     </row>
     <row r="185" spans="1:16">
       <c r="A185" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B185" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C185" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D185">
         <v>17515.91</v>
@@ -10559,13 +10538,13 @@
     </row>
     <row r="186" spans="1:16">
       <c r="A186" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B186" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C186" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D186">
         <v>254.43</v>
@@ -10609,13 +10588,13 @@
     </row>
     <row r="187" spans="1:16">
       <c r="A187" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B187" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C187" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D187">
         <v>2957.01</v>
@@ -10659,13 +10638,13 @@
     </row>
     <row r="188" spans="1:16">
       <c r="A188" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B188" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C188" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D188">
         <v>1272.14</v>
@@ -10709,13 +10688,13 @@
     </row>
     <row r="189" spans="1:16">
       <c r="A189" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B189" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C189" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D189">
         <v>2826.97</v>
@@ -10759,10 +10738,10 @@
     </row>
     <row r="190" spans="1:16">
       <c r="A190" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B190" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -10803,10 +10782,10 @@
     </row>
     <row r="191" spans="1:16">
       <c r="A191" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B191" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -10847,13 +10826,13 @@
     </row>
     <row r="192" spans="1:16">
       <c r="A192" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B192" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C192" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D192">
         <v>234.63</v>
@@ -10897,10 +10876,10 @@
     </row>
     <row r="193" spans="1:16">
       <c r="A193" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B193" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -10941,13 +10920,13 @@
     </row>
     <row r="194" spans="1:16">
       <c r="A194" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B194" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C194" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D194">
         <v>129.04</v>
@@ -10991,13 +10970,13 @@
     </row>
     <row r="195" spans="1:16">
       <c r="A195" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B195" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C195" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D195">
         <v>30.17</v>
@@ -11041,13 +11020,13 @@
     </row>
     <row r="196" spans="1:16">
       <c r="A196" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B196" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C196" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D196">
         <v>123.6</v>
@@ -11091,10 +11070,10 @@
     </row>
     <row r="197" spans="1:16">
       <c r="A197" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B197" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -11135,13 +11114,13 @@
     </row>
     <row r="198" spans="1:16">
       <c r="A198" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B198" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C198" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D198">
         <v>234.63</v>
@@ -11185,13 +11164,13 @@
     </row>
     <row r="199" spans="1:16">
       <c r="A199" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B199" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C199" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D199">
         <v>938.5</v>
@@ -11235,13 +11214,13 @@
     </row>
     <row r="200" spans="1:16">
       <c r="A200" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B200" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C200" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D200">
         <v>6241.05</v>
@@ -11285,13 +11264,13 @@
     </row>
     <row r="201" spans="1:16">
       <c r="A201" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B201" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C201" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D201">
         <v>187.7</v>
@@ -11335,13 +11314,13 @@
     </row>
     <row r="202" spans="1:16">
       <c r="A202" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B202" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C202" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D202">
         <v>795.28</v>
@@ -11385,13 +11364,13 @@
     </row>
     <row r="203" spans="1:16">
       <c r="A203" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B203" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C203" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D203">
         <v>938.5</v>
@@ -11435,13 +11414,13 @@
     </row>
     <row r="204" spans="1:16">
       <c r="A204" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B204" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C204" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D204">
         <v>335.18</v>
@@ -11485,10 +11464,10 @@
     </row>
     <row r="205" spans="1:16">
       <c r="A205" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B205" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -11529,10 +11508,10 @@
     </row>
     <row r="206" spans="1:16">
       <c r="A206" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B206" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -11573,10 +11552,10 @@
     </row>
     <row r="207" spans="1:16">
       <c r="A207" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B207" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -11617,13 +11596,13 @@
     </row>
     <row r="208" spans="1:16">
       <c r="A208" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B208" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C208" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D208">
         <v>2432.54</v>
@@ -11667,13 +11646,13 @@
     </row>
     <row r="209" spans="1:16">
       <c r="A209" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B209" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C209" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D209">
         <v>551.77</v>
@@ -11717,10 +11696,10 @@
     </row>
     <row r="210" spans="1:16">
       <c r="A210" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B210" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -11761,13 +11740,13 @@
     </row>
     <row r="211" spans="1:16">
       <c r="A211" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B211" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C211" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D211">
         <v>4458.36</v>
@@ -11811,13 +11790,13 @@
     </row>
     <row r="212" spans="1:16">
       <c r="A212" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B212" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C212" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D212">
         <v>4855.65</v>
@@ -11861,10 +11840,10 @@
     </row>
     <row r="213" spans="1:16">
       <c r="A213" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B213" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -11905,13 +11884,13 @@
     </row>
     <row r="214" spans="1:16">
       <c r="A214" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B214" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C214" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D214">
         <v>2432.54</v>
@@ -11955,13 +11934,13 @@
     </row>
     <row r="215" spans="1:16">
       <c r="A215" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B215" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C215" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D215">
         <v>8890.42</v>
@@ -12005,13 +11984,13 @@
     </row>
     <row r="216" spans="1:16">
       <c r="A216" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B216" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C216" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D216">
         <v>73209.94</v>
@@ -12055,13 +12034,13 @@
     </row>
     <row r="217" spans="1:16">
       <c r="A217" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B217" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C217" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D217">
         <v>1646.57</v>
@@ -12105,13 +12084,13 @@
     </row>
     <row r="218" spans="1:16">
       <c r="A218" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B218" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C218" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D218">
         <v>1673</v>
@@ -12155,13 +12134,13 @@
     </row>
     <row r="219" spans="1:16">
       <c r="A219" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B219" t="s">
+        <v>404</v>
+      </c>
+      <c r="C219" t="s">
         <v>411</v>
-      </c>
-      <c r="C219" t="s">
-        <v>418</v>
       </c>
       <c r="D219">
         <v>1644</v>
@@ -12205,13 +12184,13 @@
     </row>
     <row r="220" spans="1:16">
       <c r="A220" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B220" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C220" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D220">
         <v>11719.46</v>
@@ -12255,13 +12234,13 @@
     </row>
     <row r="221" spans="1:16">
       <c r="A221" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B221" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C221" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D221">
         <v>330</v>
@@ -12305,13 +12284,13 @@
     </row>
     <row r="222" spans="1:16">
       <c r="A222" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B222" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C222" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D222">
         <v>13</v>
@@ -12355,10 +12334,10 @@
     </row>
     <row r="223" spans="1:16">
       <c r="A223" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B223" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -12399,13 +12378,13 @@
     </row>
     <row r="224" spans="1:16">
       <c r="A224" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B224" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C224" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D224">
         <v>1</v>
